--- a/Data/EC/NIT-8909047132.xlsx
+++ b/Data/EC/NIT-8909047132.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA2D8A4-DC97-4451-8D85-708949473F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42E0B19-9DAB-4B03-9AD5-B697DAE0A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F52E9D74-E7F3-45CD-B212-C15B5A8C68EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C659272C-DCFB-46B9-9737-1CD07B36E799}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="135">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,418 +65,349 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1002391625</t>
-  </si>
-  <si>
-    <t>HARRYS SCHORBOGTH MONTOYA</t>
+    <t>1045668934</t>
+  </si>
+  <si>
+    <t>JHONATHAN JESUS QUINTERO LOPEZ</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>20096467</t>
+  </si>
+  <si>
+    <t>MANUEL YAIR VITOLA SUAREZ</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>20327882</t>
+  </si>
+  <si>
+    <t>RODOLFO PUELLO SALAMANCA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
   </si>
   <si>
     <t>2506</t>
   </si>
   <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1047430562</t>
-  </si>
-  <si>
-    <t>ALEXANDER MUÑOZ BAQUERO</t>
+    <t>1051817430</t>
+  </si>
+  <si>
+    <t>OSWALDO JOSE YEPES RIVERO</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1045668934</t>
-  </si>
-  <si>
-    <t>JHONATHAN JESUS QUINTERO LOPEZ</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1047430972</t>
-  </si>
-  <si>
-    <t>FRANCISCO JAVIER PERTUZ CARREAZO</t>
-  </si>
-  <si>
-    <t>20096467</t>
-  </si>
-  <si>
-    <t>MANUEL YAIR VITOLA SUAREZ</t>
-  </si>
-  <si>
-    <t>1051817430</t>
-  </si>
-  <si>
-    <t>OSWALDO JOSE YEPES RIVERO</t>
-  </si>
-  <si>
-    <t>1047466507</t>
-  </si>
-  <si>
-    <t>MILTON HURTADO BENEDETTI</t>
-  </si>
-  <si>
-    <t>1007856912</t>
-  </si>
-  <si>
-    <t>BRAYAN LOZADA MAESTRE</t>
-  </si>
-  <si>
-    <t>1143411556</t>
-  </si>
-  <si>
-    <t>HUBER ENRIQUE GOMEZ BARON</t>
-  </si>
-  <si>
-    <t>1002475375</t>
-  </si>
-  <si>
-    <t>ARGEL DAVID MUÑOZ OROZCO</t>
-  </si>
-  <si>
-    <t>20327882</t>
-  </si>
-  <si>
-    <t>RODOLFO PUELLO SALAMANCA</t>
-  </si>
-  <si>
-    <t>1007591280</t>
-  </si>
-  <si>
-    <t>YEIVER JESUS ESTRADA DIAZ</t>
-  </si>
-  <si>
-    <t>1047492263</t>
-  </si>
-  <si>
-    <t>WILSON JOSE NIETO ACEVEDO</t>
-  </si>
-  <si>
-    <t>1048602096</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL MERCADO ARIAS</t>
-  </si>
-  <si>
-    <t>1127600451</t>
-  </si>
-  <si>
-    <t>JOHAN JOSE GUARDELA MEDINA</t>
-  </si>
-  <si>
-    <t>1044910765</t>
-  </si>
-  <si>
-    <t>MAIKEL DE JESUS RAMOS MADERO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -575,7 +506,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -588,9 +521,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -790,23 +721,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -834,10 +765,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -890,7 +821,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA3AB7F-F771-70C6-E00B-1B62806433F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{428B2F49-E486-E7F0-7B8E-4693807658A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,8 +1172,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CED2D4-44AB-466A-ADEB-FF13F788AB75}">
-  <dimension ref="B2:J162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97927C9D-2B21-4938-BC2D-9AFC6F311470}">
+  <dimension ref="B2:J131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1253,7 +1184,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1266,7 +1197,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1311,7 +1242,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1343,12 +1274,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>18989966</v>
+        <v>17389166</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1359,17 +1290,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F13" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1396,13 +1327,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1419,10 +1350,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>162000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>4050000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1442,10 +1373,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>162000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>4050000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1456,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1479,19 +1410,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1502,19 +1433,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1525,19 +1456,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1548,19 +1479,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1571,19 +1502,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>52000</v>
+        <v>162000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>4050000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1594,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F24" s="18">
         <v>162000</v>
@@ -1617,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>162000</v>
@@ -1640,13 +1571,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>162000</v>
@@ -1663,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>162000</v>
@@ -1686,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>162000</v>
@@ -1709,19 +1640,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>162000</v>
+        <v>5902</v>
       </c>
       <c r="G29" s="18">
-        <v>4050000</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1732,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>162000</v>
@@ -1755,13 +1686,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>162000</v>
@@ -1778,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>162000</v>
@@ -1801,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>162000</v>
@@ -1824,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>162000</v>
@@ -1847,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>162000</v>
@@ -1870,13 +1801,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>162000</v>
@@ -1893,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>162000</v>
@@ -1916,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>162000</v>
@@ -1939,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>162000</v>
@@ -1962,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>162000</v>
@@ -1985,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>162000</v>
@@ -2008,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>162000</v>
@@ -2031,13 +1962,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>162000</v>
@@ -2054,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>162000</v>
@@ -2077,13 +2008,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>162000</v>
@@ -2100,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>162000</v>
@@ -2123,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>162000</v>
@@ -2146,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>162000</v>
@@ -2169,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>162000</v>
@@ -2192,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>162000</v>
@@ -2215,13 +2146,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>162000</v>
@@ -2238,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>162000</v>
@@ -2261,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>162000</v>
@@ -2284,13 +2215,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>162000</v>
@@ -2307,13 +2238,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>162000</v>
@@ -2330,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>162000</v>
@@ -2353,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>162000</v>
@@ -2376,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>162000</v>
@@ -2399,13 +2330,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>162000</v>
@@ -2422,13 +2353,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>162000</v>
@@ -2445,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>162000</v>
@@ -2468,13 +2399,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>162000</v>
@@ -2491,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>162000</v>
@@ -2514,13 +2445,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>162000</v>
@@ -2537,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>162000</v>
@@ -2560,13 +2491,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>162000</v>
@@ -2583,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>162000</v>
@@ -2606,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>162000</v>
@@ -2629,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>162000</v>
@@ -2652,13 +2583,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>162000</v>
@@ -2675,13 +2606,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>162000</v>
@@ -2698,13 +2629,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>162000</v>
@@ -2721,13 +2652,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>162000</v>
@@ -2744,13 +2675,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F74" s="18">
         <v>162000</v>
@@ -2767,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F75" s="18">
         <v>162000</v>
@@ -2790,13 +2721,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F76" s="18">
         <v>162000</v>
@@ -2813,13 +2744,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F77" s="18">
         <v>162000</v>
@@ -2836,19 +2767,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
-        <v>162000</v>
+        <v>30284</v>
       </c>
       <c r="G78" s="18">
-        <v>4050000</v>
+        <v>908526</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2859,13 +2790,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>162000</v>
@@ -2882,13 +2813,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
         <v>162000</v>
@@ -2905,13 +2836,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>162000</v>
@@ -2928,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
         <v>162000</v>
@@ -2951,13 +2882,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>162000</v>
@@ -2974,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F84" s="18">
         <v>162000</v>
@@ -2997,13 +2928,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F85" s="18">
         <v>162000</v>
@@ -3020,13 +2951,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F86" s="18">
         <v>162000</v>
@@ -3043,13 +2974,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F87" s="18">
         <v>162000</v>
@@ -3066,13 +2997,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F88" s="18">
         <v>162000</v>
@@ -3089,13 +3020,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F89" s="18">
         <v>162000</v>
@@ -3112,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F90" s="18">
         <v>162000</v>
@@ -3135,13 +3066,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F91" s="18">
         <v>162000</v>
@@ -3158,13 +3089,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F92" s="18">
         <v>162000</v>
@@ -3181,13 +3112,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F93" s="18">
         <v>162000</v>
@@ -3204,13 +3135,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F94" s="18">
         <v>162000</v>
@@ -3227,13 +3158,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F95" s="18">
         <v>162000</v>
@@ -3250,13 +3181,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F96" s="18">
         <v>162000</v>
@@ -3273,13 +3204,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F97" s="18">
         <v>162000</v>
@@ -3296,13 +3227,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F98" s="18">
         <v>162000</v>
@@ -3319,13 +3250,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F99" s="18">
         <v>162000</v>
@@ -3342,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F100" s="18">
         <v>162000</v>
@@ -3365,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F101" s="18">
         <v>162000</v>
@@ -3388,13 +3319,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F102" s="18">
         <v>162000</v>
@@ -3411,13 +3342,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F103" s="18">
         <v>162000</v>
@@ -3434,13 +3365,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18">
         <v>162000</v>
@@ -3457,13 +3388,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18">
         <v>162000</v>
@@ -3480,13 +3411,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F106" s="18">
         <v>162000</v>
@@ -3503,13 +3434,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F107" s="18">
         <v>162000</v>
@@ -3526,13 +3457,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
         <v>162000</v>
@@ -3549,13 +3480,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>162000</v>
@@ -3572,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F110" s="18">
         <v>162000</v>
@@ -3595,13 +3526,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F111" s="18">
         <v>162000</v>
@@ -3618,13 +3549,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F112" s="18">
         <v>162000</v>
@@ -3641,13 +3572,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F113" s="18">
         <v>162000</v>
@@ -3664,13 +3595,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F114" s="18">
         <v>162000</v>
@@ -3687,13 +3618,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F115" s="18">
         <v>162000</v>
@@ -3710,13 +3641,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F116" s="18">
         <v>162000</v>
@@ -3733,13 +3664,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F117" s="18">
         <v>162000</v>
@@ -3756,13 +3687,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F118" s="18">
         <v>162000</v>
@@ -3779,13 +3710,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F119" s="18">
         <v>162000</v>
@@ -3802,13 +3733,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F120" s="18">
         <v>162000</v>
@@ -3825,13 +3756,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F121" s="18">
         <v>162000</v>
@@ -3848,13 +3779,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F122" s="18">
         <v>162000</v>
@@ -3871,19 +3802,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F123" s="18">
-        <v>162000</v>
+        <v>18980</v>
       </c>
       <c r="G123" s="18">
-        <v>4050000</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3894,13 +3825,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F124" s="18">
         <v>162000</v>
@@ -3913,769 +3844,56 @@
       <c r="J124" s="20"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F125" s="18">
-        <v>162000</v>
-      </c>
-      <c r="G125" s="18">
-        <v>4050000</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="F126" s="18">
-        <v>162000</v>
-      </c>
-      <c r="G126" s="18">
-        <v>4050000</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F127" s="18">
-        <v>162000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>4050000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="F128" s="18">
-        <v>162000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>4050000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129" s="18">
-        <v>162000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>4050000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="B125" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F125" s="24">
+        <v>162000</v>
+      </c>
+      <c r="G125" s="24">
+        <v>4050000</v>
+      </c>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="26"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G130" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="B130" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C130" s="32"/>
+      <c r="H130" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F131" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G131" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F132" s="18">
-        <v>5902</v>
-      </c>
-      <c r="G132" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F133" s="18">
-        <v>18980</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F134" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F135" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F136" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F137" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G137" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D138" s="17" t="s">
+      <c r="B131" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E138" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F139" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F140" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D144" s="17" t="s">
+      <c r="C131" s="32"/>
+      <c r="H131" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E144" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F144" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F146" s="18">
-        <v>30284</v>
-      </c>
-      <c r="G146" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F147" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F148" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F153" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G154" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G155" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D156" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E156" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G156" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="26"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C161" s="32"/>
-      <c r="H161" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C162" s="32"/>
-      <c r="H162" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="H162:J162"/>
-    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H130:J130"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
